--- a/biology/Botanique/Mareyopsis_longifolia/Mareyopsis_longifolia.xlsx
+++ b/biology/Botanique/Mareyopsis_longifolia/Mareyopsis_longifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mareyopsis longifolia est une espèce de plantes à fleurs du genre Mareyopsis (en) dans la famille des Euphorbiaceae. C'est un arbre ou un arbuste dioïque présent en Afrique.
-Il a été tout d'abord décrit par Ferdinand Albin Pax, et a obtenu son nom actuel de Ferdinand Albin Pax et Käthe Hoffmann : Mareyopsis longifolia (Pax) Pax &amp; K.Hoffm[1]. Cet arbre fruitier est présent dans la forêt du Bassin du Congo et en Basse-Guinée.
+Il a été tout d'abord décrit par Ferdinand Albin Pax, et a obtenu son nom actuel de Ferdinand Albin Pax et Käthe Hoffmann : Mareyopsis longifolia (Pax) Pax &amp; K.Hoffm. Cet arbre fruitier est présent dans la forêt du Bassin du Congo et en Basse-Guinée.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un petit arbre d'environ 15 cm de diamètre. Il peut atteindre jusqu'à 10 m de haut. Il produit des fruits blancs[2] d'environ 2,5 cm de large et d'1,5 cm de long[3]. Les graines de Mareyopsis longifolia mesurent entre 0,5 et 2 cm. Leur délai minimum de germination est de 13 jours.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un petit arbre d'environ 15 cm de diamètre. Il peut atteindre jusqu'à 10 m de haut. Il produit des fruits blancs d'environ 2,5 cm de large et d'1,5 cm de long. Les graines de Mareyopsis longifolia mesurent entre 0,5 et 2 cm. Leur délai minimum de germination est de 13 jours.
 </t>
         </is>
       </c>
